--- a/Build 2/Metingen.xlsx
+++ b/Build 2/Metingen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\School\KdG\KdG-IoT\Build 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5073455D-0783-4BC4-9E6C-366E95D5F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B05CFA-2A4C-49AB-93B5-072688972C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="0" windowWidth="16680" windowHeight="7170" xr2:uid="{F61BAF8B-0F05-4764-B492-AC931EE2AAAD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9270" windowHeight="12885" xr2:uid="{F61BAF8B-0F05-4764-B492-AC931EE2AAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Resisitieve vochtigheidssensor</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>Capacitieve vochtigheidssensor</t>
+  </si>
+  <si>
+    <t>Nieuwe Intervallen</t>
+  </si>
+  <si>
+    <t>1775 - 2178</t>
+  </si>
+  <si>
+    <t>2179 - 2543</t>
+  </si>
+  <si>
+    <t>2544 - 2684</t>
+  </si>
+  <si>
+    <t>2672 - 2303</t>
+  </si>
+  <si>
+    <t>2302 - 1802</t>
+  </si>
+  <si>
+    <t>1801 - 1484</t>
   </si>
 </sst>
 </file>
@@ -116,24 +137,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,10 +176,2159 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>REsistieve Sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Droog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDE0-42B0-98A5-C616E0CEBC6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vochtig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDE0-42B0-98A5-C616E0CEBC6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDE0-42B0-98A5-C616E0CEBC6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1032486047"/>
+        <c:axId val="998936687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1032486047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998936687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="998936687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032486047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Capactieve Sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3548081489813773"/>
+          <c:y val="2.6890751557687366E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Droog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E012-41F9-B760-9A8454167054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vochtig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E012-41F9-B760-9A8454167054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E012-41F9-B760-9A8454167054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1001991391"/>
+        <c:axId val="904185679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001991391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904185679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="904185679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001991391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44209AB-9D05-F87C-FEC1-F46CA136CBD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781051</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6504AA7-C49D-01B7-6975-B111DFA2251D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +2366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -299,7 +2472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,7 +2614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,50 +2622,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988DE7F5-2341-40B1-B57C-BC06D6DCFCC8}">
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -502,106 +2682,192 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2100</v>
+        <v>1775</v>
       </c>
       <c r="D4" s="1">
-        <v>2400</v>
+        <v>2439</v>
       </c>
       <c r="E4" s="1">
-        <v>2630</v>
-      </c>
-      <c r="F4" s="7">
+        <v>2684</v>
+      </c>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>2631</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2100</v>
-      </c>
       <c r="I4" s="1">
-        <v>1535</v>
+        <v>2546</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2037</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1505</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7">
+      <c r="C5" s="1">
+        <v>1767</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2402</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2680</v>
+      </c>
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>2547</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2033</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7">
+      <c r="C6" s="1">
+        <v>1966</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2399</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2589</v>
+      </c>
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>2550</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1954</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7">
+      <c r="C7" s="1">
+        <v>1950</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2391</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2650</v>
+      </c>
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>2533</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1662</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7">
+      <c r="C8" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2497</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2644</v>
+      </c>
+      <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>2672</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2072</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G2:I2"/>
+  <mergeCells count="6">
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>